--- a/doc/Research/maritalAgeProbability_Research.xlsx
+++ b/doc/Research/maritalAgeProbability_Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youss\source\repos\simulation\doc\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{296F964D-CA24-496D-A4B6-B1A0FF03464F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DF16724D-9DA9-4B0E-934F-AADE9703FD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -914,7 +914,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="nl-NL" baseline="0"/>
-              <a:t> vs Single vs Divorced by Age</a:t>
+              <a:t> vs Single vs Divorced by Age 2019</a:t>
             </a:r>
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
@@ -4450,7 +4450,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL"/>
-              <a:t>CBS Married vs Single vs Divorced by Age</a:t>
+              <a:t>CBS Married vs Single vs Divorced by Age 2019</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9456,8 +9456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="W82" sqref="W82"/>
+    <sheetView tabSelected="1" topLeftCell="H54" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/Research/maritalAgeProbability_Research.xlsx
+++ b/doc/Research/maritalAgeProbability_Research.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youss\source\repos\simulation\doc\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DF16724D-9DA9-4B0E-934F-AADE9703FD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF8DAA2-1662-4E52-88F5-5BC0F568A363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="maritalAgeProbability_Research" sheetId="1" r:id="rId1"/>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7968,6 +7968,6346 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Simulated Married vs Single by Age</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> 2019</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>maritalAgeProbability_Research!$B$184</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SingleWomen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$A$185:$A$266</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$B$185:$B$266</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>103708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98313</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77459</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60387</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56842</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49586</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45978</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40579</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38309</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37096</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35640</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34572</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34824</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34860</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35984</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35305</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34623</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32956</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29913</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27963</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25249</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24511</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22734</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20971</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20094</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17025</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15634</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12894</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11986</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10722</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10197</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9717</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8470</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8080</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7274</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7280</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7352</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7189</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4959</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5482</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5177</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4956</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4709</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5312</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5249</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5357</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5569</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5926</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6731</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7133</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7535</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7441</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7876</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7849</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7728</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7219</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6635</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4709</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2667</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E68-42CB-A8B6-4F28592F5D01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>maritalAgeProbability_Research!$C$184</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MarriedWomen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$A$185:$A$266</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$C$185:$C$266</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14305</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36254</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40464</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44688</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48513</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53571</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54963</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56184</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57970</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60868</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>63297</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62099</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64534</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>66291</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68613</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72850</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76517</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84512</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>89919</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>95779</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99635</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>97248</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>97217</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>99585</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>101679</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>104695</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>104143</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>103804</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>103249</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>101463</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>101218</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>99040</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>97997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>96555</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>95023</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>93535</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>91992</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>92111</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>88766</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>89307</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>90501</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92144</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>96672</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>98514</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>69932</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>71516</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>66555</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60127</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>55942</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>55348</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>51902</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>48326</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39742</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36118</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32183</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>28005</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21074</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17528</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12915</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9891</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6617</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4625</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3093</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E68-42CB-A8B6-4F28592F5D01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>maritalAgeProbability_Research!$E$184</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SingleMen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$A$185:$A$266</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$E$185:$E$266</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>108912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113780</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108734</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85279</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78972</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74486</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69617</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60652</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>54276</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52760</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51611</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48164</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46753</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43418</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42119</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42132</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43523</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44373</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42516</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36304</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34271</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33585</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29446</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27446</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25461</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23991</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21971</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20149</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18023</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16789</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14966</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13557</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12230</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11554</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10313</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9474</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8360</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7605</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7415</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4451</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4304</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4027</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3439</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3114</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2757</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2729</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2287</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2177</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1755</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1586</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1349</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1302</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6E68-42CB-A8B6-4F28592F5D01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>maritalAgeProbability_Research!$F$184</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MarriedMen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$A$185:$A$266</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$F$185:$F$266</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2207</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6435</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13729</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23783</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27594</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40831</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43645</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45823</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46652</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49238</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51852</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54651</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54232</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55790</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58492</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59920</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67709</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75071</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80735</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>86180</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90933</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>88876</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90284</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>92772</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>95417</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>98679</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>98824</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>97504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>97785</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>95444</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>95928</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>94107</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>92986</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>91848</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>89618</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>89325</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>88282</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>88212</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85199</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>85188</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>86278</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>88601</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>91487</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>93288</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>65024</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>66355</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61144</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>54524</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>49633</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>48352</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43740</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40033</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>34642</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>31243</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27714</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24146</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20514</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17731</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14622</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12093</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9190</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7148</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5390</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4033</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2832</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6E68-42CB-A8B6-4F28592F5D01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1376602431"/>
+        <c:axId val="1374388479"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>maritalAgeProbability_Research!$D$184</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>maritalAgeProbability_Research!$A$185:$A$266</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="82"/>
+                      <c:pt idx="0">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>99</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>maritalAgeProbability_Research!$D$185:$D$266</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="82"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-6E68-42CB-A8B6-4F28592F5D01}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1376602431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1374388479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1374388479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1376602431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>CBS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> Married vs Single by Age 2019</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>maritalAgeProbability_Research!$B$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SingleWomen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$A$185:$A$266</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$B$97:$B$179</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>105930</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94412</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90507</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86624</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80630</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72621</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66478</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61305</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57191</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52411</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48465</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44787</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42544</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41486</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40087</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37183</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35859</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33438</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30972</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30722</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30373</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31310</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30876</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30077</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28638</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25528</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23615</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22191</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20970</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20121</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18942</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16270</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15289</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14087</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12829</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11759</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10675</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9719</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8787</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7952</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7506</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6707</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6165</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5796</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5298</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5185</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5071</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3423</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3325</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3116</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2744</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2574</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2337</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2182</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2129</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1927</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1916</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1609</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1279</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B750-4291-ACAA-F6ABD916DF2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>maritalAgeProbability_Research!$C$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MarriedWomen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$A$185:$A$266</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$C$97:$C$179</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6685</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18447</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23678</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29464</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38387</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46165</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47847</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49233</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49751</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51594</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>54406</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55847</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55028</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55536</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56775</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>57962</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61118</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63660</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69214</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>72488</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76613</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>78845</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>76899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76418</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78165</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>79272</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81644</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>80360</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80341</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>78608</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>78372</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>76414</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>75267</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>73634</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>72157</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70448</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>68713</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>68558</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>65138</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>64535</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>64142</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>65074</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>66590</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>66839</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45704</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45634</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40911</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35648</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>31800</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30063</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26788</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23374</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19541</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16918</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14046</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11701</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9199</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7563</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5736</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4459</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3040</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1338</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B750-4291-ACAA-F6ABD916DF2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>maritalAgeProbability_Research!$E$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SingleMen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$A$185:$A$266</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$E$97:$E$179</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>110572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107355</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105933</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101132</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82092</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70869</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65492</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60780</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56096</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53556</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51707</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41247</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39384</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39344</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38860</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40268</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40032</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39036</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34882</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32743</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30736</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29216</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28215</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26130</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23908</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22687</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20618</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19763</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17757</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16374</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14804</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13391</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12284</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11319</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10277</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9241</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7768</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7155</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6676</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6407</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4041</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3856</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3314</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2964</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2591</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2568</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2312</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1888</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1636</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1463</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1186</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B750-4291-ACAA-F6ABD916DF2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>maritalAgeProbability_Research!$F$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MarriedMen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$A$185:$A$266</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>maritalAgeProbability_Research!$F$97:$F$179</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17983</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35961</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38527</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41304</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46953</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49332</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49112</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50212</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50322</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51878</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52966</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56173</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>58875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64412</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69240</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>73009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>75824</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74459</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>74806</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>76629</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>78963</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81165</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80971</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>80161</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80105</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>78939</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>78348</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>77585</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>76243</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>76099</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>74395</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>73936</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>73256</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>73487</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>71092</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70935</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71790</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>73859</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>76326</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>77800</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>54325</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>55235</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51124</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41109</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39926</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>35803</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32797</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>28145</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25209</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21856</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18970</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15656</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13439</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10877</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8444</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4673</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3383</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2380</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1582</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B750-4291-ACAA-F6ABD916DF2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1453432111"/>
+        <c:axId val="1376404399"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>maritalAgeProbability_Research!$A$185:$A$266</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="82"/>
+                      <c:pt idx="0">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>99</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>maritalAgeProbability_Research!$D$97:$D$179</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="83"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>147</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>272</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>508</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>741</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1033</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1541</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2078</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2674</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3240</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3875</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4455</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>5360</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5965</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>6656</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>7312</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>7936</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>8720</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>9874</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>10201</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>11190</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>11948</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>12519</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>13807</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>15408</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>16769</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>19279</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>21014</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>22756</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>23762</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>23395</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>23502</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>23436</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>24401</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>24608</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>23804</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>23318</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>22620</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>21190</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>20608</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>19625</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>19056</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>18069</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>17394</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>16683</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>16088</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>15592</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>14754</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>14609</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>14134</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>13637</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>14185</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>13283</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>9360</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>9196</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>8478</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>7407</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>6725</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>6645</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>5751</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>5125</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>4199</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>3883</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>3228</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>2865</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>2364</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>2054</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>1744</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>1367</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>1082</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>813</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>708</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>484</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>405</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>276</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>240</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>142</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>133</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-B750-4291-ACAA-F6ABD916DF2A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>maritalAgeProbability_Research!$A$185:$A$266</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="82"/>
+                      <c:pt idx="0">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>99</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>maritalAgeProbability_Research!$G$97:$G$179</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="83"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>241</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>401</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>577</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>879</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1270</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1643</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2027</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2531</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3005</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3690</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4142</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>4550</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5214</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5725</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>6458</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>6928</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>7661</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>8068</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>8693</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>9443</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>10732</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>12089</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>13771</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>15479</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>17251</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>18359</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>18035</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>18718</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>19244</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>20261</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>20516</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>20292</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>19838</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>19312</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>18625</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>18253</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>17271</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>16467</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>15712</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>14543</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>14149</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>13270</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>13069</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>11997</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>11688</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>11202</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>10759</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>10635</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>10279</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>6669</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>6595</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>5725</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>4944</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>4520</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>4182</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>3618</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>3222</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>2456</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>2128</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>1775</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>1425</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>1126</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>946</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>699</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>568</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>424</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>289</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>205</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>153</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>22</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-B750-4291-ACAA-F6ABD916DF2A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1453432111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1376404399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1376404399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1453432111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8009,6 +14349,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9080,6 +15500,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9149,6 +16601,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>169937</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>50656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E76905-80C0-41F8-966D-67620583A437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>98820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>59530</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB20337E-91F2-4642-A7F6-624AFD98AC29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9453,11 +16977,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H54" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="L50" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AF78" sqref="AF78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13425,10 +20949,10 @@
       <c r="C184" t="s">
         <v>3</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>5</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13442,10 +20966,10 @@
       <c r="C185">
         <v>92</v>
       </c>
-      <c r="D185">
+      <c r="E185">
         <v>108912</v>
       </c>
-      <c r="E185">
+      <c r="F185">
         <v>7</v>
       </c>
     </row>
@@ -13459,10 +20983,10 @@
       <c r="C186">
         <v>391</v>
       </c>
-      <c r="D186">
+      <c r="E186">
         <v>113422</v>
       </c>
-      <c r="E186">
+      <c r="F186">
         <v>52</v>
       </c>
     </row>
@@ -13476,10 +21000,10 @@
       <c r="C187">
         <v>1068</v>
       </c>
-      <c r="D187">
+      <c r="E187">
         <v>113780</v>
       </c>
-      <c r="E187">
+      <c r="F187">
         <v>139</v>
       </c>
     </row>
@@ -13493,10 +21017,10 @@
       <c r="C188">
         <v>2407</v>
       </c>
-      <c r="D188">
+      <c r="E188">
         <v>113078</v>
       </c>
-      <c r="E188">
+      <c r="F188">
         <v>469</v>
       </c>
     </row>
@@ -13510,10 +21034,10 @@
       <c r="C189">
         <v>4326</v>
       </c>
-      <c r="D189">
+      <c r="E189">
         <v>108902</v>
       </c>
-      <c r="E189">
+      <c r="F189">
         <v>1081</v>
       </c>
     </row>
@@ -13527,10 +21051,10 @@
       <c r="C190">
         <v>6763</v>
       </c>
-      <c r="D190">
+      <c r="E190">
         <v>108734</v>
       </c>
-      <c r="E190">
+      <c r="F190">
         <v>2207</v>
       </c>
     </row>
@@ -13544,10 +21068,10 @@
       <c r="C191">
         <v>10062</v>
       </c>
-      <c r="D191">
+      <c r="E191">
         <v>107232</v>
       </c>
-      <c r="E191">
+      <c r="F191">
         <v>3928</v>
       </c>
     </row>
@@ -13561,14 +21085,14 @@
       <c r="C192">
         <v>14305</v>
       </c>
-      <c r="D192">
+      <c r="E192">
         <v>108205</v>
       </c>
-      <c r="E192">
+      <c r="F192">
         <v>6435</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>26</v>
       </c>
@@ -13578,14 +21102,14 @@
       <c r="C193">
         <v>18891</v>
       </c>
-      <c r="D193">
+      <c r="E193">
         <v>105248</v>
       </c>
-      <c r="E193">
+      <c r="F193">
         <v>9402</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>27</v>
       </c>
@@ -13595,14 +21119,14 @@
       <c r="C194">
         <v>24365</v>
       </c>
-      <c r="D194">
+      <c r="E194">
         <v>102275</v>
       </c>
-      <c r="E194">
+      <c r="F194">
         <v>13729</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>28</v>
       </c>
@@ -13612,14 +21136,14 @@
       <c r="C195">
         <v>30477</v>
       </c>
-      <c r="D195">
+      <c r="E195">
         <v>98802</v>
       </c>
-      <c r="E195">
+      <c r="F195">
         <v>18179</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>29</v>
       </c>
@@ -13629,14 +21153,14 @@
       <c r="C196">
         <v>36254</v>
       </c>
-      <c r="D196">
+      <c r="E196">
         <v>93681</v>
       </c>
-      <c r="E196">
+      <c r="F196">
         <v>23783</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>30</v>
       </c>
@@ -13646,14 +21170,14 @@
       <c r="C197">
         <v>40464</v>
       </c>
-      <c r="D197">
+      <c r="E197">
         <v>85279</v>
       </c>
-      <c r="E197">
+      <c r="F197">
         <v>27594</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>31</v>
       </c>
@@ -13663,14 +21187,14 @@
       <c r="C198">
         <v>44688</v>
       </c>
-      <c r="D198">
+      <c r="E198">
         <v>78972</v>
       </c>
-      <c r="E198">
+      <c r="F198">
         <v>32904</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>32</v>
       </c>
@@ -13680,14 +21204,14 @@
       <c r="C199">
         <v>48513</v>
       </c>
-      <c r="D199">
+      <c r="E199">
         <v>74486</v>
       </c>
-      <c r="E199">
+      <c r="F199">
         <v>37440</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>33</v>
       </c>
@@ -13697,14 +21221,14 @@
       <c r="C200">
         <v>52324</v>
       </c>
-      <c r="D200">
+      <c r="E200">
         <v>69617</v>
       </c>
-      <c r="E200">
+      <c r="F200">
         <v>40831</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>34</v>
       </c>
@@ -13714,14 +21238,14 @@
       <c r="C201">
         <v>53571</v>
       </c>
-      <c r="D201">
+      <c r="E201">
         <v>64476</v>
       </c>
-      <c r="E201">
+      <c r="F201">
         <v>43645</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>35</v>
       </c>
@@ -13731,14 +21255,14 @@
       <c r="C202">
         <v>54963</v>
       </c>
-      <c r="D202">
+      <c r="E202">
         <v>60652</v>
       </c>
-      <c r="E202">
+      <c r="F202">
         <v>45823</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>36</v>
       </c>
@@ -13748,14 +21272,14 @@
       <c r="C203">
         <v>56184</v>
       </c>
-      <c r="D203">
+      <c r="E203">
         <v>56501</v>
       </c>
-      <c r="E203">
+      <c r="F203">
         <v>46652</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>37</v>
       </c>
@@ -13765,14 +21289,14 @@
       <c r="C204">
         <v>57970</v>
       </c>
-      <c r="D204">
+      <c r="E204">
         <v>54276</v>
       </c>
-      <c r="E204">
+      <c r="F204">
         <v>49238</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>38</v>
       </c>
@@ -13782,14 +21306,14 @@
       <c r="C205">
         <v>60868</v>
       </c>
-      <c r="D205">
+      <c r="E205">
         <v>52760</v>
       </c>
-      <c r="E205">
+      <c r="F205">
         <v>51852</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>39</v>
       </c>
@@ -13799,14 +21323,14 @@
       <c r="C206">
         <v>63297</v>
       </c>
-      <c r="D206">
+      <c r="E206">
         <v>51611</v>
       </c>
-      <c r="E206">
+      <c r="F206">
         <v>54651</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>40</v>
       </c>
@@ -13816,14 +21340,14 @@
       <c r="C207">
         <v>62099</v>
       </c>
-      <c r="D207">
+      <c r="E207">
         <v>48164</v>
       </c>
-      <c r="E207">
+      <c r="F207">
         <v>54232</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>41</v>
       </c>
@@ -13833,14 +21357,14 @@
       <c r="C208">
         <v>64534</v>
       </c>
-      <c r="D208">
+      <c r="E208">
         <v>46753</v>
       </c>
-      <c r="E208">
+      <c r="F208">
         <v>55422</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>42</v>
       </c>
@@ -13850,14 +21374,14 @@
       <c r="C209">
         <v>64503</v>
       </c>
-      <c r="D209">
+      <c r="E209">
         <v>44694</v>
       </c>
-      <c r="E209">
+      <c r="F209">
         <v>55790</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>43</v>
       </c>
@@ -13867,14 +21391,14 @@
       <c r="C210">
         <v>66291</v>
       </c>
-      <c r="D210">
+      <c r="E210">
         <v>43418</v>
       </c>
-      <c r="E210">
+      <c r="F210">
         <v>58492</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>44</v>
       </c>
@@ -13884,14 +21408,14 @@
       <c r="C211">
         <v>68613</v>
       </c>
-      <c r="D211">
+      <c r="E211">
         <v>41952</v>
       </c>
-      <c r="E211">
+      <c r="F211">
         <v>59920</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>45</v>
       </c>
@@ -13901,14 +21425,14 @@
       <c r="C212">
         <v>72850</v>
       </c>
-      <c r="D212">
+      <c r="E212">
         <v>42119</v>
       </c>
-      <c r="E212">
+      <c r="F212">
         <v>64125</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>46</v>
       </c>
@@ -13918,14 +21442,14 @@
       <c r="C213">
         <v>76517</v>
       </c>
-      <c r="D213">
+      <c r="E213">
         <v>42132</v>
       </c>
-      <c r="E213">
+      <c r="F213">
         <v>67709</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>47</v>
       </c>
@@ -13935,14 +21459,14 @@
       <c r="C214">
         <v>84512</v>
       </c>
-      <c r="D214">
+      <c r="E214">
         <v>43523</v>
       </c>
-      <c r="E214">
+      <c r="F214">
         <v>75071</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>48</v>
       </c>
@@ -13952,14 +21476,14 @@
       <c r="C215">
         <v>89919</v>
       </c>
-      <c r="D215">
+      <c r="E215">
         <v>44373</v>
       </c>
-      <c r="E215">
+      <c r="F215">
         <v>80735</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>49</v>
       </c>
@@ -13969,14 +21493,14 @@
       <c r="C216">
         <v>95779</v>
       </c>
-      <c r="D216">
+      <c r="E216">
         <v>44134</v>
       </c>
-      <c r="E216">
+      <c r="F216">
         <v>86180</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>50</v>
       </c>
@@ -13986,14 +21510,14 @@
       <c r="C217">
         <v>99635</v>
       </c>
-      <c r="D217">
+      <c r="E217">
         <v>42516</v>
       </c>
-      <c r="E217">
+      <c r="F217">
         <v>90933</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>51</v>
       </c>
@@ -14003,14 +21527,14 @@
       <c r="C218">
         <v>97248</v>
       </c>
-      <c r="D218">
+      <c r="E218">
         <v>38790</v>
       </c>
-      <c r="E218">
+      <c r="F218">
         <v>88876</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>52</v>
       </c>
@@ -14020,14 +21544,14 @@
       <c r="C219">
         <v>97217</v>
       </c>
-      <c r="D219">
+      <c r="E219">
         <v>36304</v>
       </c>
-      <c r="E219">
+      <c r="F219">
         <v>90284</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>53</v>
       </c>
@@ -14037,14 +21561,14 @@
       <c r="C220">
         <v>99585</v>
       </c>
-      <c r="D220">
+      <c r="E220">
         <v>34271</v>
       </c>
-      <c r="E220">
+      <c r="F220">
         <v>92772</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>54</v>
       </c>
@@ -14054,14 +21578,14 @@
       <c r="C221">
         <v>101679</v>
       </c>
-      <c r="D221">
+      <c r="E221">
         <v>33585</v>
       </c>
-      <c r="E221">
+      <c r="F221">
         <v>95417</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>55</v>
       </c>
@@ -14071,14 +21595,14 @@
       <c r="C222">
         <v>104695</v>
       </c>
-      <c r="D222">
+      <c r="E222">
         <v>32006</v>
       </c>
-      <c r="E222">
+      <c r="F222">
         <v>98679</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>56</v>
       </c>
@@ -14088,14 +21612,14 @@
       <c r="C223">
         <v>104143</v>
       </c>
-      <c r="D223">
+      <c r="E223">
         <v>29446</v>
       </c>
-      <c r="E223">
+      <c r="F223">
         <v>98824</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>57</v>
       </c>
@@ -14105,14 +21629,14 @@
       <c r="C224">
         <v>103804</v>
       </c>
-      <c r="D224">
+      <c r="E224">
         <v>27446</v>
       </c>
-      <c r="E224">
+      <c r="F224">
         <v>97504</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>58</v>
       </c>
@@ -14122,14 +21646,14 @@
       <c r="C225">
         <v>103249</v>
       </c>
-      <c r="D225">
+      <c r="E225">
         <v>25461</v>
       </c>
-      <c r="E225">
+      <c r="F225">
         <v>97785</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>59</v>
       </c>
@@ -14139,14 +21663,14 @@
       <c r="C226">
         <v>101463</v>
       </c>
-      <c r="D226">
+      <c r="E226">
         <v>23991</v>
       </c>
-      <c r="E226">
+      <c r="F226">
         <v>95444</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>60</v>
       </c>
@@ -14156,14 +21680,14 @@
       <c r="C227">
         <v>101218</v>
       </c>
-      <c r="D227">
+      <c r="E227">
         <v>21971</v>
       </c>
-      <c r="E227">
+      <c r="F227">
         <v>95928</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>61</v>
       </c>
@@ -14173,14 +21697,14 @@
       <c r="C228">
         <v>99040</v>
       </c>
-      <c r="D228">
+      <c r="E228">
         <v>20149</v>
       </c>
-      <c r="E228">
+      <c r="F228">
         <v>94107</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>62</v>
       </c>
@@ -14190,14 +21714,14 @@
       <c r="C229">
         <v>97997</v>
       </c>
-      <c r="D229">
+      <c r="E229">
         <v>18023</v>
       </c>
-      <c r="E229">
+      <c r="F229">
         <v>92986</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>63</v>
       </c>
@@ -14207,14 +21731,14 @@
       <c r="C230">
         <v>96555</v>
       </c>
-      <c r="D230">
+      <c r="E230">
         <v>16789</v>
       </c>
-      <c r="E230">
+      <c r="F230">
         <v>91848</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>64</v>
       </c>
@@ -14224,14 +21748,14 @@
       <c r="C231">
         <v>95023</v>
       </c>
-      <c r="D231">
+      <c r="E231">
         <v>14966</v>
       </c>
-      <c r="E231">
+      <c r="F231">
         <v>89618</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>65</v>
       </c>
@@ -14241,14 +21765,14 @@
       <c r="C232">
         <v>93535</v>
       </c>
-      <c r="D232">
+      <c r="E232">
         <v>13557</v>
       </c>
-      <c r="E232">
+      <c r="F232">
         <v>89325</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>66</v>
       </c>
@@ -14258,14 +21782,14 @@
       <c r="C233">
         <v>91992</v>
       </c>
-      <c r="D233">
+      <c r="E233">
         <v>12230</v>
       </c>
-      <c r="E233">
+      <c r="F233">
         <v>88282</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>67</v>
       </c>
@@ -14275,14 +21799,14 @@
       <c r="C234">
         <v>92111</v>
       </c>
-      <c r="D234">
+      <c r="E234">
         <v>11554</v>
       </c>
-      <c r="E234">
+      <c r="F234">
         <v>88212</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>68</v>
       </c>
@@ -14292,14 +21816,14 @@
       <c r="C235">
         <v>88766</v>
       </c>
-      <c r="D235">
+      <c r="E235">
         <v>10313</v>
       </c>
-      <c r="E235">
+      <c r="F235">
         <v>85199</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>69</v>
       </c>
@@ -14309,14 +21833,14 @@
       <c r="C236">
         <v>89307</v>
       </c>
-      <c r="D236">
+      <c r="E236">
         <v>9474</v>
       </c>
-      <c r="E236">
+      <c r="F236">
         <v>85188</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>70</v>
       </c>
@@ -14326,14 +21850,14 @@
       <c r="C237">
         <v>90501</v>
       </c>
-      <c r="D237">
+      <c r="E237">
         <v>8360</v>
       </c>
-      <c r="E237">
+      <c r="F237">
         <v>86278</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>71</v>
       </c>
@@ -14343,14 +21867,14 @@
       <c r="C238">
         <v>92144</v>
       </c>
-      <c r="D238">
+      <c r="E238">
         <v>7605</v>
       </c>
-      <c r="E238">
+      <c r="F238">
         <v>88601</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>72</v>
       </c>
@@ -14360,14 +21884,14 @@
       <c r="C239">
         <v>96672</v>
       </c>
-      <c r="D239">
+      <c r="E239">
         <v>7415</v>
       </c>
-      <c r="E239">
+      <c r="F239">
         <v>91487</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>73</v>
       </c>
@@ -14377,14 +21901,14 @@
       <c r="C240">
         <v>98514</v>
       </c>
-      <c r="D240">
+      <c r="E240">
         <v>6998</v>
       </c>
-      <c r="E240">
+      <c r="F240">
         <v>93288</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>74</v>
       </c>
@@ -14394,14 +21918,14 @@
       <c r="C241">
         <v>69932</v>
       </c>
-      <c r="D241">
+      <c r="E241">
         <v>4451</v>
       </c>
-      <c r="E241">
+      <c r="F241">
         <v>65024</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>75</v>
       </c>
@@ -14411,14 +21935,14 @@
       <c r="C242">
         <v>71516</v>
       </c>
-      <c r="D242">
+      <c r="E242">
         <v>4304</v>
       </c>
-      <c r="E242">
+      <c r="F242">
         <v>66355</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>76</v>
       </c>
@@ -14428,14 +21952,14 @@
       <c r="C243">
         <v>66555</v>
       </c>
-      <c r="D243">
+      <c r="E243">
         <v>4027</v>
       </c>
-      <c r="E243">
+      <c r="F243">
         <v>61144</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>77</v>
       </c>
@@ -14445,14 +21969,14 @@
       <c r="C244">
         <v>60127</v>
       </c>
-      <c r="D244">
+      <c r="E244">
         <v>3439</v>
       </c>
-      <c r="E244">
+      <c r="F244">
         <v>54524</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>78</v>
       </c>
@@ -14462,14 +21986,14 @@
       <c r="C245">
         <v>55942</v>
       </c>
-      <c r="D245">
+      <c r="E245">
         <v>3241</v>
       </c>
-      <c r="E245">
+      <c r="F245">
         <v>49633</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>79</v>
       </c>
@@ -14479,14 +22003,14 @@
       <c r="C246">
         <v>55348</v>
       </c>
-      <c r="D246">
+      <c r="E246">
         <v>3114</v>
       </c>
-      <c r="E246">
+      <c r="F246">
         <v>48352</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>80</v>
       </c>
@@ -14496,14 +22020,14 @@
       <c r="C247">
         <v>51902</v>
       </c>
-      <c r="D247">
+      <c r="E247">
         <v>2757</v>
       </c>
-      <c r="E247">
+      <c r="F247">
         <v>43740</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>81</v>
       </c>
@@ -14513,14 +22037,14 @@
       <c r="C248">
         <v>48326</v>
       </c>
-      <c r="D248">
+      <c r="E248">
         <v>2729</v>
       </c>
-      <c r="E248">
+      <c r="F248">
         <v>40033</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>82</v>
       </c>
@@ -14530,14 +22054,14 @@
       <c r="C249">
         <v>42808</v>
       </c>
-      <c r="D249">
+      <c r="E249">
         <v>2287</v>
       </c>
-      <c r="E249">
+      <c r="F249">
         <v>34642</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>83</v>
       </c>
@@ -14547,14 +22071,14 @@
       <c r="C250">
         <v>39742</v>
       </c>
-      <c r="D250">
+      <c r="E250">
         <v>2177</v>
       </c>
-      <c r="E250">
+      <c r="F250">
         <v>31243</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>84</v>
       </c>
@@ -14564,14 +22088,14 @@
       <c r="C251">
         <v>36118</v>
       </c>
-      <c r="D251">
+      <c r="E251">
         <v>1755</v>
       </c>
-      <c r="E251">
+      <c r="F251">
         <v>27714</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>85</v>
       </c>
@@ -14581,14 +22105,14 @@
       <c r="C252">
         <v>32183</v>
       </c>
-      <c r="D252">
+      <c r="E252">
         <v>1586</v>
       </c>
-      <c r="E252">
+      <c r="F252">
         <v>24146</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>86</v>
       </c>
@@ -14598,14 +22122,14 @@
       <c r="C253">
         <v>28005</v>
       </c>
-      <c r="D253">
+      <c r="E253">
         <v>1349</v>
       </c>
-      <c r="E253">
+      <c r="F253">
         <v>20514</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>87</v>
       </c>
@@ -14615,14 +22139,14 @@
       <c r="C254">
         <v>25000</v>
       </c>
-      <c r="D254">
+      <c r="E254">
         <v>1302</v>
       </c>
-      <c r="E254">
+      <c r="F254">
         <v>17731</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>88</v>
       </c>
@@ -14632,14 +22156,14 @@
       <c r="C255">
         <v>21074</v>
       </c>
-      <c r="D255">
+      <c r="E255">
         <v>1194</v>
       </c>
-      <c r="E255">
+      <c r="F255">
         <v>14622</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>89</v>
       </c>
@@ -14649,14 +22173,14 @@
       <c r="C256">
         <v>17528</v>
       </c>
-      <c r="D256">
+      <c r="E256">
         <v>874</v>
       </c>
-      <c r="E256">
+      <c r="F256">
         <v>12093</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>90</v>
       </c>
@@ -14666,14 +22190,14 @@
       <c r="C257">
         <v>12915</v>
       </c>
-      <c r="D257">
+      <c r="E257">
         <v>761</v>
       </c>
-      <c r="E257">
+      <c r="F257">
         <v>9190</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>91</v>
       </c>
@@ -14683,14 +22207,14 @@
       <c r="C258">
         <v>9891</v>
       </c>
-      <c r="D258">
+      <c r="E258">
         <v>624</v>
       </c>
-      <c r="E258">
+      <c r="F258">
         <v>7148</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>92</v>
       </c>
@@ -14700,14 +22224,14 @@
       <c r="C259">
         <v>6617</v>
       </c>
-      <c r="D259">
+      <c r="E259">
         <v>471</v>
       </c>
-      <c r="E259">
+      <c r="F259">
         <v>5390</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>93</v>
       </c>
@@ -14717,14 +22241,14 @@
       <c r="C260">
         <v>4625</v>
       </c>
-      <c r="D260">
+      <c r="E260">
         <v>398</v>
       </c>
-      <c r="E260">
+      <c r="F260">
         <v>4033</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>94</v>
       </c>
@@ -14734,14 +22258,14 @@
       <c r="C261">
         <v>3093</v>
       </c>
-      <c r="D261">
+      <c r="E261">
         <v>275</v>
       </c>
-      <c r="E261">
+      <c r="F261">
         <v>2832</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>95</v>
       </c>
@@ -14751,14 +22275,14 @@
       <c r="C262">
         <v>2027</v>
       </c>
-      <c r="D262">
+      <c r="E262">
         <v>215</v>
       </c>
-      <c r="E262">
+      <c r="F262">
         <v>1901</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>96</v>
       </c>
@@ -14768,14 +22292,14 @@
       <c r="C263">
         <v>1049</v>
       </c>
-      <c r="D263">
+      <c r="E263">
         <v>193</v>
       </c>
-      <c r="E263">
+      <c r="F263">
         <v>1333</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>97</v>
       </c>
@@ -14785,14 +22309,14 @@
       <c r="C264">
         <v>741</v>
       </c>
-      <c r="D264">
+      <c r="E264">
         <v>131</v>
       </c>
-      <c r="E264">
+      <c r="F264">
         <v>774</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>98</v>
       </c>
@@ -14802,14 +22326,14 @@
       <c r="C265">
         <v>339</v>
       </c>
-      <c r="D265">
+      <c r="E265">
         <v>77</v>
       </c>
-      <c r="E265">
+      <c r="F265">
         <v>482</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>99</v>
       </c>
@@ -14819,10 +22343,10 @@
       <c r="C266">
         <v>204</v>
       </c>
-      <c r="D266">
+      <c r="E266">
         <v>168</v>
       </c>
-      <c r="E266">
+      <c r="F266">
         <v>584</v>
       </c>
     </row>
